--- a/products/冲调饮品/咖啡/雀巢经典即溶咖啡.xlsx
+++ b/products/冲调饮品/咖啡/雀巢经典即溶咖啡.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t xml:space="preserve">品名</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">价格规格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">批发61-500</t>
   </si>
 </sst>
 </file>
@@ -315,14 +318,14 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7474226804124"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8041237113402"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="15.2731958762887"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1030927835052"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.4845360824742"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="15.5309278350515"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
@@ -628,7 +631,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>30</v>
